--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/63.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/63.xlsx
@@ -479,13 +479,13 @@
         <v>-0.0005592159050582177</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.932161715384421</v>
+        <v>-1.930668086187421</v>
       </c>
       <c r="F2" t="n">
-        <v>0.392670669697364</v>
+        <v>0.3908032681890917</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2307786254091959</v>
+        <v>-0.2298821558813779</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.03169978840831141</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.945964280011826</v>
+        <v>-1.945020358921054</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3111211436277495</v>
+        <v>0.3092055605324773</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.210900070651474</v>
+        <v>-0.210210927952565</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.05510621396767228</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.015274222935353</v>
+        <v>-2.013868196623808</v>
       </c>
       <c r="F4" t="n">
-        <v>0.284390583179393</v>
+        <v>0.282745108980939</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.228410427405742</v>
+        <v>-0.2278278682174694</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.06037223229348945</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.080170440480063</v>
+        <v>-2.079870400597381</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2598500948673996</v>
+        <v>0.2581038773506729</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2350813871331038</v>
+        <v>-0.2346492128981948</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.04499630975990163</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.046557943355208</v>
+        <v>-2.046178330851572</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2467709840690395</v>
+        <v>0.245802972184767</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2228753850931071</v>
+        <v>-0.2225395740321981</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.01187366828933961</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.91317744008238</v>
+        <v>-1.91378774018438</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2622956754196717</v>
+        <v>0.2601581650145814</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2097743735733834</v>
+        <v>-0.2090414294317472</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.02895243192490409</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.641206981948363</v>
+        <v>-1.641643536327544</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2601304241008541</v>
+        <v>0.2572760300831276</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.183937362556663</v>
+        <v>-0.1820451402308453</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.06482429026562647</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.264047359104828</v>
+        <v>-1.264205044298646</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2442494810160402</v>
+        <v>0.24161409421195</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1260289351750422</v>
+        <v>-0.1237746209226792</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.08465389372671747</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.776424877847413</v>
+        <v>-0.7757444954370496</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2690834389943063</v>
+        <v>0.2662597059864888</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02632517114306897</v>
+        <v>-0.02485782281170573</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.08037288788800213</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2412617707019203</v>
+        <v>-0.2399272867468298</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1635394825986982</v>
+        <v>0.162104255325335</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06204423955918003</v>
+        <v>0.06346924649590692</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.04653658294050289</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4248530497171735</v>
+        <v>0.4240310426419919</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04173497061464002</v>
+        <v>0.04102100709818567</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1616910617156078</v>
+        <v>0.1633613567316074</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.01838481546290276</v>
       </c>
       <c r="E13" t="n">
-        <v>1.111134054367898</v>
+        <v>1.111274218984626</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1238607637600428</v>
+        <v>-0.1252244486769515</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2931435714843907</v>
+        <v>0.2940940627915722</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.115664767984508</v>
       </c>
       <c r="E14" t="n">
-        <v>1.827725657385888</v>
+        <v>1.82750373007607</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3451281318410743</v>
+        <v>-0.3442185218804382</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4404960049631693</v>
+        <v>0.4416056415122599</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.246004838079567</v>
       </c>
       <c r="E15" t="n">
-        <v>2.531940432737244</v>
+        <v>2.53114616657579</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6167788394431831</v>
+        <v>-0.6162722027556379</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6287429254202097</v>
+        <v>0.6297109373044821</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4080976345253051</v>
       </c>
       <c r="E16" t="n">
-        <v>3.202306913197064</v>
+        <v>3.200643918421519</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9362534222630065</v>
+        <v>-0.936341025148461</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7842657880157133</v>
+        <v>0.7847154828277132</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5983427380808728</v>
       </c>
       <c r="E17" t="n">
-        <v>3.858734314532979</v>
+        <v>3.856463939751616</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.195449919649664</v>
+        <v>-1.195350636379482</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9832265413638418</v>
+        <v>0.983958025457387</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8097209709576649</v>
       </c>
       <c r="E18" t="n">
-        <v>4.398353488451924</v>
+        <v>4.395904987803471</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.556251163682658</v>
+        <v>-1.556965127199113</v>
       </c>
       <c r="G18" t="n">
-        <v>1.182530406013334</v>
+        <v>1.182888117795606</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.033643221821962</v>
       </c>
       <c r="E19" t="n">
-        <v>4.926457263077874</v>
+        <v>4.923899258822602</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.838372606168719</v>
+        <v>-1.837931671645264</v>
       </c>
       <c r="G19" t="n">
-        <v>1.37837103659119</v>
+        <v>1.377389884274099</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.259112747606061</v>
       </c>
       <c r="E20" t="n">
-        <v>5.287671700720595</v>
+        <v>5.28451507674805</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.159341548209587</v>
+        <v>-2.159062679024224</v>
       </c>
       <c r="G20" t="n">
-        <v>1.588052923070861</v>
+        <v>1.587159373639225</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.472379823171567</v>
       </c>
       <c r="E21" t="n">
-        <v>5.598988994856511</v>
+        <v>5.596217823579967</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.474214059446866</v>
+        <v>-2.472762771644503</v>
       </c>
       <c r="G21" t="n">
-        <v>1.768292939797358</v>
+        <v>1.766838731898813</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.658401859796437</v>
       </c>
       <c r="E22" t="n">
-        <v>5.835233536254084</v>
+        <v>5.831768842134358</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.784035534313646</v>
+        <v>-2.782606877256693</v>
       </c>
       <c r="G22" t="n">
-        <v>1.895815000105415</v>
+        <v>1.894448395092324</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.805574655101019</v>
       </c>
       <c r="E23" t="n">
-        <v>5.984597916002135</v>
+        <v>5.979137336142137</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.035474066169261</v>
+        <v>-3.034598767338761</v>
       </c>
       <c r="G23" t="n">
-        <v>2.013483195847929</v>
+        <v>2.01125224236502</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.910006779571643</v>
       </c>
       <c r="E24" t="n">
-        <v>6.074850788741657</v>
+        <v>6.069676378307476</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.26960737802738</v>
+        <v>-3.268396998160016</v>
       </c>
       <c r="G24" t="n">
-        <v>2.11618881875481</v>
+        <v>2.113813320510902</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.972291129483041</v>
       </c>
       <c r="E25" t="n">
-        <v>6.088492018055017</v>
+        <v>6.082429898381563</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.444400685350742</v>
+        <v>-3.442804852787379</v>
       </c>
       <c r="G25" t="n">
-        <v>2.174122066953977</v>
+        <v>2.173136534492613</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.993450876099561</v>
       </c>
       <c r="E26" t="n">
-        <v>6.035995988946394</v>
+        <v>6.030367503555941</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.609590526356152</v>
+        <v>-3.607531128523926</v>
       </c>
       <c r="G26" t="n">
-        <v>2.20062339985206</v>
+        <v>2.199290375945061</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.975168432668594</v>
       </c>
       <c r="E27" t="n">
-        <v>5.935617682696421</v>
+        <v>5.930614097888877</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.697673767632583</v>
+        <v>-3.694777762244266</v>
       </c>
       <c r="G27" t="n">
-        <v>2.202541903043514</v>
+        <v>2.200743123795515</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.920073861449732</v>
       </c>
       <c r="E28" t="n">
-        <v>5.863962902538895</v>
+        <v>5.859276148167078</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.76480750887661</v>
+        <v>-3.762149491327111</v>
       </c>
       <c r="G28" t="n">
-        <v>2.210818915670876</v>
+        <v>2.20947567142724</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.834461364302414</v>
       </c>
       <c r="E29" t="n">
-        <v>5.668427422012038</v>
+        <v>5.664079398797312</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.802896513448191</v>
+        <v>-3.799078487690465</v>
       </c>
       <c r="G29" t="n">
-        <v>2.207094332990968</v>
+        <v>2.204261839694605</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.726720037171121</v>
       </c>
       <c r="E30" t="n">
-        <v>5.45780234446564</v>
+        <v>5.453819333273641</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.82819257664723</v>
+        <v>-3.822500579164823</v>
       </c>
       <c r="G30" t="n">
-        <v>2.161092597790707</v>
+        <v>2.158280545167617</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.604830319346617</v>
       </c>
       <c r="E31" t="n">
-        <v>5.179612081464351</v>
+        <v>5.175836397101262</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.72452624209653</v>
+        <v>-3.718972949182759</v>
       </c>
       <c r="G31" t="n">
-        <v>2.078573599788729</v>
+        <v>2.075381934662003</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.476065302545752</v>
       </c>
       <c r="E32" t="n">
-        <v>4.872580028475252</v>
+        <v>4.868557595984798</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.642619734268689</v>
+        <v>-3.636577325244463</v>
       </c>
       <c r="G32" t="n">
-        <v>1.931850447037132</v>
+        <v>1.928341951474679</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.3455726829236</v>
       </c>
       <c r="E33" t="n">
-        <v>4.5913966668876</v>
+        <v>4.587029663047693</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.506920674627498</v>
+        <v>-3.501844087415408</v>
       </c>
       <c r="G33" t="n">
-        <v>1.839775434280157</v>
+        <v>1.836361841843613</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.218348713329567</v>
       </c>
       <c r="E34" t="n">
-        <v>4.260434425688508</v>
+        <v>4.257196039022872</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.395388330987028</v>
+        <v>-3.391510443257574</v>
       </c>
       <c r="G34" t="n">
-        <v>1.715849472420009</v>
+        <v>1.713452073454736</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.097367580692429</v>
       </c>
       <c r="E35" t="n">
-        <v>3.916023681524054</v>
+        <v>3.912313699325055</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.277071143868105</v>
+        <v>-3.272901976544516</v>
       </c>
       <c r="G35" t="n">
-        <v>1.601507266228585</v>
+        <v>1.598225078120222</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9839617118877904</v>
       </c>
       <c r="E36" t="n">
-        <v>3.580130857921963</v>
+        <v>3.5759974617766</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.151780767067002</v>
+        <v>-3.146738490985049</v>
       </c>
       <c r="G36" t="n">
-        <v>1.456552231715078</v>
+        <v>1.45459430722517</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8784456168568849</v>
       </c>
       <c r="E37" t="n">
-        <v>3.232015971750874</v>
+        <v>3.229497388794057</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.01402960983404</v>
+        <v>-3.01062477768604</v>
       </c>
       <c r="G37" t="n">
-        <v>1.325835586184113</v>
+        <v>1.323788598760659</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7804549161953283</v>
       </c>
       <c r="E38" t="n">
-        <v>2.872249901814334</v>
+        <v>2.868700524905336</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.959758892270917</v>
+        <v>-2.957251259674782</v>
       </c>
       <c r="G38" t="n">
-        <v>1.179946120892425</v>
+        <v>1.178062658855153</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6912202979875166</v>
       </c>
       <c r="E39" t="n">
-        <v>2.529256864346154</v>
+        <v>2.525897293688973</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.820109672519773</v>
+        <v>-2.817449464898138</v>
       </c>
       <c r="G39" t="n">
-        <v>1.078812969779452</v>
+        <v>1.076557195478999</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6108776040404656</v>
       </c>
       <c r="E40" t="n">
-        <v>2.212516951600603</v>
+        <v>2.209215782867058</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.703467160561123</v>
+        <v>-2.701161744625578</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9588013968510302</v>
+        <v>0.9566887072634852</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5383354135475401</v>
       </c>
       <c r="E41" t="n">
-        <v>1.879633287113874</v>
+        <v>1.876540905257329</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.574383578819839</v>
+        <v>-2.572098603557567</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8367209357777902</v>
+        <v>0.8347542509993362</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.47202914919689</v>
       </c>
       <c r="E42" t="n">
-        <v>1.548446198508781</v>
+        <v>1.546218165122054</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.50903766646313</v>
+        <v>-2.505823370590994</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7200791538431851</v>
+        <v>0.718178171228822</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4101286636003768</v>
       </c>
       <c r="E43" t="n">
-        <v>1.283152540294489</v>
+        <v>1.280387209210307</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.428861315623015</v>
+        <v>-2.425779154103107</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6567043064092022</v>
+        <v>0.6549610089886572</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3515556103655155</v>
       </c>
       <c r="E44" t="n">
-        <v>1.014204381708652</v>
+        <v>1.010968915139198</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.315198761817909</v>
+        <v>-2.312493292705455</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5489045757131402</v>
+        <v>0.5472810022360497</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2954483899651026</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7927194664620747</v>
+        <v>0.7884225449305304</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.270930833725603</v>
+        <v>-2.268456782235558</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4424218083950779</v>
+        <v>0.4410756440552601</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2412801510652134</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5582766244086832</v>
+        <v>0.5539724026366843</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.179602635567127</v>
+        <v>-2.176707360202855</v>
       </c>
       <c r="G46" t="n">
-        <v>0.374503291302187</v>
+        <v>0.3721277930582786</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1887960231780673</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3596648225542819</v>
+        <v>0.3555577072745558</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.089481167155788</v>
+        <v>-2.085924490006334</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2938604550970269</v>
+        <v>0.2920383150795728</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1385163713564655</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2399204384264959</v>
+        <v>0.2358060229063152</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.985273154763361</v>
+        <v>-1.982013597400407</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2041346597183237</v>
+        <v>0.2020789120063242</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.09128914296761499</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1115617705623485</v>
+        <v>0.1070662824904407</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.886019815567433</v>
+        <v>-1.882386485893207</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1521759283071558</v>
+        <v>0.1504340909347018</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.04775986446351384</v>
       </c>
       <c r="E50" t="n">
-        <v>0.006534671190922205</v>
+        <v>0.002113645571650665</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.801410028699274</v>
+        <v>-1.797631424240002</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08561379589071916</v>
+        <v>0.08371427332444693</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.007904206029251338</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.08348897399832635</v>
+        <v>-0.08768223211541613</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.671447498007264</v>
+        <v>-1.667687874173174</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02715785047500758</v>
+        <v>0.02488455559746273</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.02834908232492469</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1869859429704804</v>
+        <v>-0.1895950489089342</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.551019811372932</v>
+        <v>-1.547169664557206</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.009249908719891738</v>
+        <v>-0.01048802950098231</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.06095759634055268</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.3068923924363573</v>
+        <v>-0.3086517503859023</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.43855960717069</v>
+        <v>-1.435343121226418</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07643986181541915</v>
+        <v>-0.07725894879441893</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.09021166623718224</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3407844887706209</v>
+        <v>-0.3424343431133477</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.367028931100891</v>
+        <v>-1.363859166695528</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1404074887743111</v>
+        <v>-0.1408761642114928</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1167639255985419</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4692351396644955</v>
+        <v>-0.4704367592433134</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.321827302254448</v>
+        <v>-1.317740627647995</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1496014116027631</v>
+        <v>-0.1491341962136724</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1413230204758771</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.548066056188838</v>
+        <v>-0.5479667729186561</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.237024789038289</v>
+        <v>-1.235166147818562</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1999000683345678</v>
+        <v>-0.2000533733841132</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1636926971158294</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6477654400765385</v>
+        <v>-0.646638282950357</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.1958134716243</v>
+        <v>-1.193842406701574</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2292908364045599</v>
+        <v>-0.2284775896179238</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1833367628213077</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6700720548094415</v>
+        <v>-0.6687127500368055</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.155717630951766</v>
+        <v>-1.154625514979766</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.263670588801187</v>
+        <v>-0.2627230175901873</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1998482676986869</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7657884275051431</v>
+        <v>-0.7655314590411432</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.142203425822315</v>
+        <v>-1.141130290475497</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3160731748319912</v>
+        <v>-0.3149372574172642</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2131094009915616</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8322176955453071</v>
+        <v>-0.8320016084278526</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.102707664915143</v>
+        <v>-1.10283030895478</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3497652445778003</v>
+        <v>-0.348506683123437</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2232152999158483</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9630380044907265</v>
+        <v>-0.9618670459218177</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.093329776027237</v>
+        <v>-1.092877161119055</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3931724743205159</v>
+        <v>-0.3918044092593345</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2300310805012799</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.084146073535421</v>
+        <v>-1.082580901981967</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.093046526697601</v>
+        <v>-1.092522369432964</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4345838183229593</v>
+        <v>-0.4328405209024144</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2337827474666803</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.144101488340496</v>
+        <v>-1.142635600057224</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.132102813129408</v>
+        <v>-1.131438491248045</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4940501170175797</v>
+        <v>-0.4918980061315803</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.235063006056883</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.239651415553834</v>
+        <v>-1.238515498139107</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.160681794460855</v>
+        <v>-1.159897748636037</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5226466189261175</v>
+        <v>-0.5207967379949362</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2351143104600374</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.370115472765072</v>
+        <v>-1.367358901969436</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.121336418507048</v>
+        <v>-1.120270583400684</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5477331652241108</v>
+        <v>-0.5460482697272021</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2347445806632215</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.429483948237601</v>
+        <v>-1.426909883453329</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.199819843585754</v>
+        <v>-1.1984152773223</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6023929856034598</v>
+        <v>-0.6004117003440966</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2349966372926771</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.529126390249756</v>
+        <v>-1.527094003307211</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.290856762150093</v>
+        <v>-1.289028781940275</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.647885164019993</v>
+        <v>-0.6463637939092661</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.236720867832749</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.554970701506931</v>
+        <v>-1.554509326310204</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.360854387724438</v>
+        <v>-1.358566492365984</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6715087421308957</v>
+        <v>-0.6699231299041689</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2402350168884497</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.62150363296155</v>
+        <v>-1.621490492528731</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.443005453607507</v>
+        <v>-1.440641635748326</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6667416851140788</v>
+        <v>-0.6660204213571699</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2459681489982079</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.676934358732898</v>
+        <v>-1.677170886523626</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.518227131251123</v>
+        <v>-1.516368490031396</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6915887835251631</v>
+        <v>-0.6904149048600725</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2535876242910681</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.709877423808071</v>
+        <v>-1.709207261734344</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.629475495537911</v>
+        <v>-1.627300023882457</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.732719798294152</v>
+        <v>-0.7307414331309707</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2625036409827081</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.690141953763258</v>
+        <v>-1.689801762558077</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.723766861296886</v>
+        <v>-1.720762082325796</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7551432168743278</v>
+        <v>-0.7534159799827829</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2717840054877913</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.679136111253989</v>
+        <v>-1.67770818422108</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.776097904971236</v>
+        <v>-1.773674225140327</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7768278511205038</v>
+        <v>-0.7758554590919586</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2802433251359544</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.630025933668184</v>
+        <v>-1.628887096157275</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.848149088185443</v>
+        <v>-1.845999897395626</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7741486628736863</v>
+        <v>-0.7722841814615959</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2870880176342378</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.542063876383298</v>
+        <v>-1.541027242238753</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.951043057296052</v>
+        <v>-1.949284429370553</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7772264442493219</v>
+        <v>-0.7758423186591404</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2913215046644075</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.424547525642239</v>
+        <v>-1.423338605822967</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.004345762974901</v>
+        <v>-2.003163854045311</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7645225658103253</v>
+        <v>-0.7635866749840529</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2919820550292468</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.289370433193548</v>
+        <v>-1.288986440545639</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.05551095824866</v>
+        <v>-2.05390344530057</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.751542738282147</v>
+        <v>-0.7506798498604199</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2887322057959981</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.107062988370324</v>
+        <v>-1.108016399773688</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.082503597329335</v>
+        <v>-2.081969219728062</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7251859501450632</v>
+        <v>-0.7247435555735178</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2812663224302075</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9463379744269128</v>
+        <v>-0.9482287367046396</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.079271050856063</v>
+        <v>-2.078538106714427</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.670145057213987</v>
+        <v>-0.6697756650469872</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2698115309198357</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.7039495506627961</v>
+        <v>-0.7053803977918867</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.114269863643236</v>
+        <v>-2.113994644578099</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6111372136199119</v>
+        <v>-0.6099604148586395</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2543367535214732</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4463357454066835</v>
+        <v>-0.447862955709774</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.116527828015826</v>
+        <v>-2.116524177895599</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5171524579600281</v>
+        <v>-0.5162705889131193</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2350537508560512</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1560869452225796</v>
+        <v>-0.1564928385918522</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.102228847037511</v>
+        <v>-2.101547734603103</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4483301710988647</v>
+        <v>-0.4472088541650469</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2120242047712084</v>
       </c>
       <c r="E83" t="n">
-        <v>0.144672741167976</v>
+        <v>0.1448202060251578</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.036121519601393</v>
+        <v>-2.033623377317848</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3338200593769864</v>
+        <v>-0.3324490742196231</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1858341190438448</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4896018024047016</v>
+        <v>0.4905917150103377</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.978562043713499</v>
+        <v>-1.976133253714273</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2532400052397353</v>
+        <v>-0.2521449691715538</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1572974784794243</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7951533666296196</v>
+        <v>0.7975945670376189</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.906473629272973</v>
+        <v>-1.903860873214292</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1791849060207552</v>
+        <v>-0.1779482452877555</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1273782519071921</v>
       </c>
       <c r="E86" t="n">
-        <v>1.111007030183989</v>
+        <v>1.112909472846443</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.856462602015078</v>
+        <v>-1.853088430876987</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1055970221908659</v>
+        <v>-0.1052290900719569</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.09706695086031419</v>
       </c>
       <c r="E87" t="n">
-        <v>1.355641007911924</v>
+        <v>1.35666450162365</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.681304282668988</v>
+        <v>-1.676573726854444</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05898644693669657</v>
+        <v>-0.05882292155051479</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.06722339557875218</v>
       </c>
       <c r="E88" t="n">
-        <v>1.579686847509954</v>
+        <v>1.58082130487659</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.499977990162855</v>
+        <v>-1.494929143864493</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01027969454410302</v>
+        <v>0.01010302872510306</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.03795932684256406</v>
       </c>
       <c r="E89" t="n">
-        <v>1.767576056184722</v>
+        <v>1.770198302555994</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.266952854805736</v>
+        <v>-1.260432280031738</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06616303522363347</v>
+        <v>0.06637912234108795</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.009506348415552437</v>
       </c>
       <c r="E90" t="n">
-        <v>1.949673254082855</v>
+        <v>1.952496987090672</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.037541338473616</v>
+        <v>-1.030349141577799</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09840819731135209</v>
+        <v>0.09825781235798849</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.01805607859297457</v>
       </c>
       <c r="E91" t="n">
-        <v>2.133982424838714</v>
+        <v>2.13712444833035</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8129056394468578</v>
+        <v>-0.8053557307687689</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08171108734372021</v>
+        <v>0.08193447470162923</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.04363395667585694</v>
       </c>
       <c r="E92" t="n">
-        <v>2.250545364176411</v>
+        <v>2.252237559913774</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6124249760360934</v>
+        <v>-0.6044005517284592</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09245412119662641</v>
+        <v>0.09161605359244482</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.06579806084166645</v>
       </c>
       <c r="E93" t="n">
-        <v>2.354614672000201</v>
+        <v>2.356216344755928</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3635685392292511</v>
+        <v>-0.3556054369414351</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04330014216809415</v>
+        <v>0.04221970658082171</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.08285436602149536</v>
       </c>
       <c r="E94" t="n">
-        <v>2.374106314013832</v>
+        <v>2.374913720608105</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2216869059471074</v>
+        <v>-0.2137092031783823</v>
       </c>
       <c r="G94" t="n">
-        <v>0.008216646591649026</v>
+        <v>0.007260315092103829</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.09366874519315249</v>
       </c>
       <c r="E95" t="n">
-        <v>2.328684217905662</v>
+        <v>2.328687138001844</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.05790601134942413</v>
+        <v>-0.05113430830378958</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.02835317794134115</v>
+        <v>-0.0290321003036137</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.0975668458537806</v>
       </c>
       <c r="E96" t="n">
-        <v>2.229863782968689</v>
+        <v>2.229545492484871</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06203693931872548</v>
+        <v>0.0691736543870872</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.07063179050978435</v>
+        <v>-0.07197065460914763</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.09551459597296363</v>
       </c>
       <c r="E97" t="n">
-        <v>2.082048514245092</v>
+        <v>2.082517189682274</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1329923564407064</v>
+        <v>0.1386164616868867</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1261063177238604</v>
+        <v>-0.12739116004386</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.08851397046881762</v>
       </c>
       <c r="E98" t="n">
-        <v>1.888660764459962</v>
+        <v>1.889297345427599</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1984652929813252</v>
+        <v>0.2029666212455967</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1400818980500384</v>
+        <v>-0.1403972684376747</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.078887971532232</v>
       </c>
       <c r="E99" t="n">
-        <v>1.691526531273561</v>
+        <v>1.692436141234197</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2081935934110499</v>
+        <v>0.2115809049819581</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1340241585208582</v>
+        <v>-0.1338328922209492</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.06820176295649412</v>
       </c>
       <c r="E100" t="n">
-        <v>1.533572688606694</v>
+        <v>1.535828462907148</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2315412224327709</v>
+        <v>0.2343926963543156</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.130286435408132</v>
+        <v>-0.1308339534422227</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.05806527272484375</v>
       </c>
       <c r="E101" t="n">
-        <v>1.391172738252278</v>
+        <v>1.393888427701368</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2223896409989551</v>
+        <v>0.2241314783714092</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1106385682487736</v>
+        <v>-0.1108298345486826</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.04709776227912809</v>
       </c>
       <c r="E102" t="n">
-        <v>1.210345782193235</v>
+        <v>1.214978514785689</v>
       </c>
       <c r="F102" t="n">
-        <v>0.236832436714224</v>
+        <v>0.2381012185052237</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.142104064655947</v>
+        <v>-0.1420179218185834</v>
       </c>
     </row>
   </sheetData>
